--- a/myapp/files/80_distances/distances_aggregate1_pValue_Chances.xlsx
+++ b/myapp/files/80_distances/distances_aggregate1_pValue_Chances.xlsx
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.301155555555556</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3543</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="4">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.127827777777778</v>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0973388888888889</v>
+        <v>0.1412</v>
       </c>
     </row>
     <row r="6">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.293038888888889</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.322022222222222</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.260283333333333</v>
+        <v>0.3311</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24385</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.283616666666667</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251372222222222</v>
+        <v>0.3548</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0.118694444444444</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>0.197661111111111</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.613161111111111</v>
+        <v>0.4989</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>0.591916666666667</v>
+        <v>0.5887</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.582022222222222</v>
+        <v>0.5907</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0.550961111111111</v>
+        <v>0.4697</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.618688888888889</v>
+        <v>0.5152</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.591294444444444</v>
+        <v>0.5846</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6945</v>
+        <v>0.6061</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>0.715327777777778</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.671666666666667</v>
+        <v>0.6691</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>0.629966666666667</v>
+        <v>0.7073</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.594444444444444</v>
+        <v>0.5698</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.577522222222222</v>
+        <v>0.5312</v>
       </c>
     </row>
     <row r="26">
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.19385</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182555555555556</v>
+        <v>0.1894</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256777777777778</v>
+        <v>0.2752</v>
       </c>
     </row>
     <row r="29">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.210694444444444</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="30">
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0941611111111111</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0812055555555556</v>
+        <v>0.1227</v>
       </c>
     </row>
     <row r="32">
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.136166666666667</v>
+        <v>0.1789</v>
       </c>
     </row>
     <row r="33">
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.200916666666667</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0489611111111111</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0274444444444444</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0862388888888889</v>
+        <v>0.1215</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0802055555555556</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.243727777777778</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.234444444444444</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.277583333333333</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.335683333333333</v>
+        <v>0.3648</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.220161111111111</v>
+        <v>0.2734</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.18465</v>
+        <v>0.1877</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate1_pValue_Chances.xlsx
+++ b/myapp/files/80_distances/distances_aggregate1_pValue_Chances.xlsx
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2963</v>
+        <v>0.301155555555556</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4229</v>
+        <v>0.3543</v>
       </c>
     </row>
     <row r="4">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1565</v>
+        <v>0.127827777777778</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1412</v>
+        <v>0.0973388888888889</v>
       </c>
     </row>
     <row r="6">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2727</v>
+        <v>0.293038888888889</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.303</v>
+        <v>0.322022222222222</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3311</v>
+        <v>0.260283333333333</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3121</v>
+        <v>0.24385</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3636</v>
+        <v>0.283616666666667</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3548</v>
+        <v>0.251372222222222</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1515</v>
+        <v>0.118694444444444</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2023</v>
+        <v>0.197661111111111</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4989</v>
+        <v>0.601322222222222</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5887</v>
+        <v>0.64155</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5907</v>
+        <v>0.570244444444444</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4697</v>
+        <v>0.612783333333333</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5152</v>
+        <v>0.618688888888889</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5846</v>
+        <v>0.659661111111111</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6061</v>
+        <v>0.694488888888889</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6667</v>
+        <v>0.735788888888889</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6691</v>
+        <v>0.671666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7073</v>
+        <v>0.714216666666667</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5698</v>
+        <v>0.58195</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5312</v>
+        <v>0.623588888888889</v>
       </c>
     </row>
     <row r="26">
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2031</v>
+        <v>0.19385</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1894</v>
+        <v>0.182555555555556</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2752</v>
+        <v>0.256777777777778</v>
       </c>
     </row>
     <row r="29">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2528</v>
+        <v>0.210694444444444</v>
       </c>
     </row>
     <row r="30">
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.154</v>
+        <v>0.0941611111111111</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1227</v>
+        <v>0.0812055555555556</v>
       </c>
     </row>
     <row r="32">
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1789</v>
+        <v>0.136166666666667</v>
       </c>
     </row>
     <row r="33">
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255</v>
+        <v>0.200916666666667</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0709</v>
+        <v>0.0490166666666667</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.061</v>
+        <v>0.02755</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1215</v>
+        <v>0.0862222222222222</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1003</v>
+        <v>0.0802055555555556</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3008</v>
+        <v>0.243788888888889</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2985</v>
+        <v>0.234366666666667</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2262</v>
+        <v>0.277561111111111</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3648</v>
+        <v>0.335583333333333</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2734</v>
+        <v>0.220155555555556</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1877</v>
+        <v>0.184727777777778</v>
       </c>
     </row>
   </sheetData>
